--- a/Runtime Data/GCP/0.25/0.25_gcp_speed_3_runs_with_averages.xlsx
+++ b/Runtime Data/GCP/0.25/0.25_gcp_speed_3_runs_with_averages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uibkacat-my.sharepoint.com/personal/fabian_dria_student_uibk_ac_at/Documents/Uni/Bachelorarbeit/Evaluation/Execution_GCP/0.25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{4D886382-A2A8-481F-BFC6-C43B324FE7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD0417B-70B2-4209-8E16-661F0006539A}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{4D886382-A2A8-481F-BFC6-C43B324FE7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{775E9C2B-22AD-4591-9B8D-7EFDF7EC8386}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="9024" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="speed_3_1" sheetId="4" r:id="rId1"/>
@@ -1024,7 +1024,7 @@
   <dimension ref="A2:R220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,7 +1206,7 @@
         <v>2.0129999999999999</v>
       </c>
       <c r="J6">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>10.273999999999999</v>
       </c>
       <c r="J9">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1354,7 +1354,7 @@
         <v>5.6520000000000001</v>
       </c>
       <c r="J10">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>5.1870000000000003</v>
       </c>
       <c r="J11">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -13004,7 +13004,7 @@
   <dimension ref="A2:R220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13186,7 +13186,7 @@
         <v>2.0449999999999999</v>
       </c>
       <c r="J6">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -13297,7 +13297,7 @@
         <v>10.997999999999999</v>
       </c>
       <c r="J9">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -13334,7 +13334,7 @@
         <v>4.0430000000000001</v>
       </c>
       <c r="J10">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -13371,7 +13371,7 @@
         <v>4.5599999999999996</v>
       </c>
       <c r="J11">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -24984,7 +24984,7 @@
   <dimension ref="A2:R220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25166,7 +25166,7 @@
         <v>1.996</v>
       </c>
       <c r="J6">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -25277,7 +25277,7 @@
         <v>11.019</v>
       </c>
       <c r="J9">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -25314,7 +25314,7 @@
         <v>4.6580000000000004</v>
       </c>
       <c r="J10">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -25351,7 +25351,7 @@
         <v>4.9649999999999999</v>
       </c>
       <c r="J11">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -36964,7 +36964,7 @@
   <dimension ref="A2:R220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37146,7 +37146,7 @@
         <v>2.036</v>
       </c>
       <c r="J6">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -37257,7 +37257,7 @@
         <v>12.315</v>
       </c>
       <c r="J9">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -37294,7 +37294,7 @@
         <v>6.9530000000000003</v>
       </c>
       <c r="J10">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -37331,7 +37331,7 @@
         <v>5.0069999999999997</v>
       </c>
       <c r="J11">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -48943,8 +48943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7957407-8E7D-4664-8F4F-4A704F4706C7}">
   <dimension ref="A2:R220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49126,7 +49126,7 @@
         <v>2.097</v>
       </c>
       <c r="J6">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -49237,7 +49237,7 @@
         <v>10.632999999999999</v>
       </c>
       <c r="J9">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -49274,7 +49274,7 @@
         <v>4.8040000000000003</v>
       </c>
       <c r="J10">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -49311,7 +49311,7 @@
         <v>4.6859999999999999</v>
       </c>
       <c r="J11">
-        <v>8196</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -60923,8 +60923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61199,7 +61199,7 @@
       </c>
       <c r="L8">
         <f>AVERAGE(speed_3_1:speed_3_5!J6)</f>
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="N8">
         <f>F8/ABS((C8-D8*H25))</f>
@@ -61370,7 +61370,7 @@
       </c>
       <c r="L11">
         <f>AVERAGE(speed_3_1:speed_3_5!J9)</f>
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="N11">
         <f>F11/(C11-D11*H25)</f>
@@ -61427,7 +61427,7 @@
       </c>
       <c r="L12">
         <f>AVERAGE(speed_3_1:speed_3_5!J10)</f>
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="N12">
         <f>F12/(C12-D12*H25)</f>
@@ -61484,7 +61484,7 @@
       </c>
       <c r="L13">
         <f>AVERAGE(speed_3_1:speed_3_5!J11)</f>
-        <v>8196</v>
+        <v>8192</v>
       </c>
       <c r="N13">
         <f>F13/(C13-D13*H25)</f>
